--- a/natmiOut/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Cx3cl1-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H2">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I2">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J2">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N2">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P2">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q2">
-        <v>11.69094532027374</v>
+        <v>35.34803490008466</v>
       </c>
       <c r="R2">
-        <v>11.69094532027374</v>
+        <v>318.132314100762</v>
       </c>
       <c r="S2">
-        <v>0.09592588044459457</v>
+        <v>0.1905765453263882</v>
       </c>
       <c r="T2">
-        <v>0.09592588044459457</v>
+        <v>0.1905765453263882</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H3">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I3">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J3">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P3">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q3">
-        <v>33.98062785654029</v>
+        <v>40.53983464145111</v>
       </c>
       <c r="R3">
-        <v>33.98062785654029</v>
+        <v>364.8585117730599</v>
       </c>
       <c r="S3">
-        <v>0.2788159174387809</v>
+        <v>0.2185677833551161</v>
       </c>
       <c r="T3">
-        <v>0.2788159174387809</v>
+        <v>0.2185677833551161</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H4">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I4">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J4">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N4">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P4">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q4">
-        <v>1.867376248224213</v>
+        <v>2.722224632468444</v>
       </c>
       <c r="R4">
-        <v>1.867376248224213</v>
+        <v>24.500021692216</v>
       </c>
       <c r="S4">
-        <v>0.01532208951671303</v>
+        <v>0.01467669044473503</v>
       </c>
       <c r="T4">
-        <v>0.01532208951671303</v>
+        <v>0.01467669044473503</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.073236105266689</v>
+        <v>9.355195333333333</v>
       </c>
       <c r="H5">
-        <v>8.073236105266689</v>
+        <v>28.065586</v>
       </c>
       <c r="I5">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400846</v>
       </c>
       <c r="J5">
-        <v>0.4154041124348532</v>
+        <v>0.4481020953400845</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N5">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O5">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P5">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q5">
-        <v>3.088334283842999</v>
+        <v>4.503640927841777</v>
       </c>
       <c r="R5">
-        <v>3.088334283842999</v>
+        <v>40.532768350576</v>
       </c>
       <c r="S5">
-        <v>0.02534022503476474</v>
+        <v>0.02428107621384519</v>
       </c>
       <c r="T5">
-        <v>0.02534022503476474</v>
+        <v>0.02428107621384519</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H6">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I6">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J6">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N6">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P6">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q6">
-        <v>14.93148269295943</v>
+        <v>39.38559043034699</v>
       </c>
       <c r="R6">
-        <v>14.93148269295943</v>
+        <v>354.470313873123</v>
       </c>
       <c r="S6">
-        <v>0.1225149536181239</v>
+        <v>0.2123447535647196</v>
       </c>
       <c r="T6">
-        <v>0.1225149536181239</v>
+        <v>0.2123447535647196</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H7">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I7">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J7">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P7">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q7">
-        <v>43.39949788798998</v>
+        <v>45.17041266410999</v>
       </c>
       <c r="R7">
-        <v>43.39949788798998</v>
+        <v>406.5337139769899</v>
       </c>
       <c r="S7">
-        <v>0.3560990947874251</v>
+        <v>0.2435332323515613</v>
       </c>
       <c r="T7">
-        <v>0.3560990947874251</v>
+        <v>0.2435332323515613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H8">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I8">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J8">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N8">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P8">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q8">
-        <v>2.384982169341845</v>
+        <v>3.033165060996</v>
       </c>
       <c r="R8">
-        <v>2.384982169341845</v>
+        <v>27.298485548964</v>
       </c>
       <c r="S8">
-        <v>0.01956912021836562</v>
+        <v>0.01635310478682188</v>
       </c>
       <c r="T8">
-        <v>0.01956912021836562</v>
+        <v>0.01635310478682188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.3110041044262</v>
+        <v>10.423773</v>
       </c>
       <c r="H9">
-        <v>10.3110041044262</v>
+        <v>31.271319</v>
       </c>
       <c r="I9">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832745</v>
       </c>
       <c r="J9">
-        <v>0.5305472864242217</v>
+        <v>0.4992856221832744</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.38253981966764</v>
+        <v>0.4814053333333333</v>
       </c>
       <c r="N9">
-        <v>0.38253981966764</v>
+        <v>1.444216</v>
       </c>
       <c r="O9">
-        <v>0.06100138221125286</v>
+        <v>0.0541864822020464</v>
       </c>
       <c r="P9">
-        <v>0.06100138221125286</v>
+        <v>0.05418648220204641</v>
       </c>
       <c r="Q9">
-        <v>3.944369650699494</v>
+        <v>5.018059915655999</v>
       </c>
       <c r="R9">
-        <v>3.944369650699494</v>
+        <v>45.162539240904</v>
       </c>
       <c r="S9">
-        <v>0.03236411780030699</v>
+        <v>0.02705453148017167</v>
       </c>
       <c r="T9">
-        <v>0.03236411780030699</v>
+        <v>0.02705453148017167</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.05041598074816</v>
+        <v>0.009880666666666668</v>
       </c>
       <c r="H10">
-        <v>1.05041598074816</v>
+        <v>0.029642</v>
       </c>
       <c r="I10">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968286</v>
       </c>
       <c r="J10">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968285</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.44811141007594</v>
+        <v>3.778439</v>
       </c>
       <c r="N10">
-        <v>1.44811141007594</v>
+        <v>11.335317</v>
       </c>
       <c r="O10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="P10">
-        <v>0.2309218362869202</v>
+        <v>0.4252971528324392</v>
       </c>
       <c r="Q10">
-        <v>1.521119367047519</v>
+        <v>0.03733349627933334</v>
       </c>
       <c r="R10">
-        <v>1.521119367047519</v>
+        <v>0.336001466514</v>
       </c>
       <c r="S10">
-        <v>0.01248100222420176</v>
+        <v>0.000201281026398836</v>
       </c>
       <c r="T10">
-        <v>0.01248100222420176</v>
+        <v>0.0002012810263988359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.05041598074816</v>
+        <v>0.009880666666666668</v>
       </c>
       <c r="H11">
-        <v>1.05041598074816</v>
+        <v>0.029642</v>
       </c>
       <c r="I11">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968286</v>
       </c>
       <c r="J11">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968285</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.2090467085897</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
-        <v>4.2090467085897</v>
+        <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="P11">
-        <v>0.6711920009759337</v>
+        <v>0.4877633593505858</v>
       </c>
       <c r="Q11">
-        <v>4.421249926418064</v>
+        <v>0.04281691386888889</v>
       </c>
       <c r="R11">
-        <v>4.421249926418064</v>
+        <v>0.38535222482</v>
       </c>
       <c r="S11">
-        <v>0.03627698874972767</v>
+        <v>0.0002308445023813988</v>
       </c>
       <c r="T11">
-        <v>0.03627698874972767</v>
+        <v>0.0002308445023813988</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.05041598074816</v>
+        <v>0.009880666666666668</v>
       </c>
       <c r="H12">
-        <v>1.05041598074816</v>
+        <v>0.029642</v>
       </c>
       <c r="I12">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968286</v>
       </c>
       <c r="J12">
-        <v>0.05404860114092513</v>
+        <v>0.0004732715115968285</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.231304550477101</v>
+        <v>0.2909853333333334</v>
       </c>
       <c r="N12">
-        <v>0.231304550477101</v>
+        <v>0.8729560000000001</v>
       </c>
       <c r="O12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="P12">
-        <v>0.03688478052589321</v>
+        <v>0.03275300561492853</v>
       </c>
       <c r="Q12">
-        <v>0.2429659962409163</v>
+        <v>0.002875129083555556</v>
       </c>
       <c r="R12">
-        <v>0.2429659962409163</v>
+        <v>0.025876161752</v>
       </c>
       <c r="S12">
-        <v>0.001993570790814565</v>
+        <v>1.550106447671664E-05</v>
       </c>
       <c r="T12">
-        <v>0.001993570790814565</v>
+        <v>1.550106447671664E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.009880666666666668</v>
+      </c>
+      <c r="H13">
+        <v>0.029642</v>
+      </c>
+      <c r="I13">
+        <v>0.0004732715115968286</v>
+      </c>
+      <c r="J13">
+        <v>0.0004732715115968285</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.444216</v>
+      </c>
+      <c r="O13">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P13">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q13">
+        <v>0.004756605630222222</v>
+      </c>
+      <c r="R13">
+        <v>0.042809450672</v>
+      </c>
+      <c r="S13">
+        <v>2.564491833987715E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.564491833987715E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.265577</v>
+      </c>
+      <c r="I14">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J14">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.778439</v>
+      </c>
+      <c r="N14">
+        <v>11.335317</v>
+      </c>
+      <c r="O14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="P14">
+        <v>0.4252971528324392</v>
+      </c>
+      <c r="Q14">
+        <v>4.112927831434333</v>
+      </c>
+      <c r="R14">
+        <v>37.016350482909</v>
+      </c>
+      <c r="S14">
+        <v>0.02217457291493257</v>
+      </c>
+      <c r="T14">
+        <v>0.02217457291493257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.265577</v>
+      </c>
+      <c r="I15">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J15">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.333403333333333</v>
+      </c>
+      <c r="N15">
+        <v>13.00021</v>
+      </c>
+      <c r="O15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="P15">
+        <v>0.4877633593505858</v>
+      </c>
+      <c r="Q15">
+        <v>4.717020752352221</v>
+      </c>
+      <c r="R15">
+        <v>42.45318677116999</v>
+      </c>
+      <c r="S15">
+        <v>0.02543149914152693</v>
+      </c>
+      <c r="T15">
+        <v>0.02543149914152692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.05041598074816</v>
-      </c>
-      <c r="H13">
-        <v>1.05041598074816</v>
-      </c>
-      <c r="I13">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="J13">
-        <v>0.05404860114092513</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="N13">
-        <v>0.38253981966764</v>
-      </c>
-      <c r="O13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="P13">
-        <v>0.06100138221125286</v>
-      </c>
-      <c r="Q13">
-        <v>0.4018259398514083</v>
-      </c>
-      <c r="R13">
-        <v>0.4018259398514083</v>
-      </c>
-      <c r="S13">
-        <v>0.003297039376181132</v>
-      </c>
-      <c r="T13">
-        <v>0.003297039376181132</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.265577</v>
+      </c>
+      <c r="I16">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J16">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2909853333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.8729560000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="P16">
+        <v>0.03275300561492853</v>
+      </c>
+      <c r="Q16">
+        <v>0.3167450039568889</v>
+      </c>
+      <c r="R16">
+        <v>2.850705035612</v>
+      </c>
+      <c r="S16">
+        <v>0.001707709318894909</v>
+      </c>
+      <c r="T16">
+        <v>0.001707709318894908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.088525666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.265577</v>
+      </c>
+      <c r="I17">
+        <v>0.05213901096504407</v>
+      </c>
+      <c r="J17">
+        <v>0.05213901096504406</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4814053333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.444216</v>
+      </c>
+      <c r="O17">
+        <v>0.0541864822020464</v>
+      </c>
+      <c r="P17">
+        <v>0.05418648220204641</v>
+      </c>
+      <c r="Q17">
+        <v>0.5240220614035555</v>
+      </c>
+      <c r="R17">
+        <v>4.716198552631999</v>
+      </c>
+      <c r="S17">
+        <v>0.002825229589689663</v>
+      </c>
+      <c r="T17">
+        <v>0.002825229589689662</v>
       </c>
     </row>
   </sheetData>
